--- a/biology/Virologie/Betapartitivirus/Betapartitivirus.xlsx
+++ b/biology/Virologie/Betapartitivirus/Betapartitivirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Betapartitivirus est un genre de virus de la famille des Partitiviridae qui comprend 14 espèces acceptées par l'ICTV, dont l'espèce-type, Atkinsonella hypoxylon virus. Ce sont des virus à ARN à double brin classés dans le groupe III de la classification Baltimore.
-Les virus du genre Betapartitivirus infectent les plantes (phytovirus, sept espèces) et les champignons ascomycètes et basidiomycètes (mycovirus, dix espèces). Le génome de ces virus est segmenté, bipartite, constitué de deux segments d'ARN à double brin, de 4,3 à 4,8 kb au total, dont on suppose qu'ils sont encapsidés individuellement dans des particules séparées[2].
+Les virus du genre Betapartitivirus infectent les plantes (phytovirus, sept espèces) et les champignons ascomycètes et basidiomycètes (mycovirus, dix espèces). Le génome de ces virus est segmenté, bipartite, constitué de deux segments d'ARN à double brin, de 4,3 à 4,8 kb au total, dont on suppose qu'ils sont encapsidés individuellement dans des particules séparées.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des espèces et non-classés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (7 février 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (7 février 2021) :
 Atkinsonella hypoxylon virus
 Cannabis cryptic virus
 Ceratocystis resinifera virus 1
